--- a/SpotifyCloneNormalizadoMinha.xlsx
+++ b/SpotifyCloneNormalizadoMinha.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="143">
   <si>
     <t xml:space="preserve">usuario_id</t>
   </si>
@@ -453,15 +453,6 @@
   <si>
     <t xml:space="preserve"> "2017-10-12 12:35:20"</t>
   </si>
-  <si>
-    <t xml:space="preserve">Error Code: 1072. Key column 'artistas' doesn't exist in table</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error Code: 1054. Unknown column 'nome' in 'field list'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error Code: 1146. Table 'SpotifyClone.historico_reproducao' doesn't exist</t>
-  </si>
 </sst>
 </file>
 
@@ -810,10 +801,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -839,6 +826,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1007,11 +998,11 @@
   </sheetPr>
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="66" zoomScaleNormal="66" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="66" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.29"/>
@@ -31375,10 +31366,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ43"/>
+  <dimension ref="A1:AMJ35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="66" zoomScaleNormal="66" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J43" activeCellId="0" sqref="J43"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="66" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="19.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -31392,12 +31383,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="37" width="25.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="37" width="14.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="37" width="13.51"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="37" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="37" width="14.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="37" width="29.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="37" width="28.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="37" width="13.51"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="15" style="37" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="37" width="14.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="37" width="29.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="37" width="28.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="37" width="13.51"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="14" style="37" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31414,471 +31404,455 @@
         <v>92</v>
       </c>
       <c r="I1" s="40"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="42" t="s">
+      <c r="J1" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-    </row>
-    <row r="2" s="46" customFormat="true" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="43" t="s">
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+    </row>
+    <row r="2" s="45" customFormat="true" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="45" t="s">
+      <c r="G2" s="43"/>
+      <c r="H2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="45" t="s">
+      <c r="I2" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="J2" s="44"/>
-      <c r="K2" s="42" t="s">
+      <c r="J2" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="L2" s="42" t="s">
+      <c r="K2" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="M2" s="42" t="s">
+      <c r="L2" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="N2" s="42" t="s">
+      <c r="M2" s="41" t="s">
         <v>99</v>
       </c>
+      <c r="AMG2" s="37"/>
       <c r="AMH2" s="37"/>
       <c r="AMI2" s="37"/>
-      <c r="AMJ2" s="37"/>
+      <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="47" t="n">
+      <c r="A3" s="46" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="47" t="n">
+      <c r="D3" s="46" t="n">
         <v>82</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="48" t="n">
+      <c r="F3" s="47" t="n">
         <v>1</v>
       </c>
-      <c r="G3" s="41"/>
-      <c r="H3" s="48" t="n">
+      <c r="G3" s="48"/>
+      <c r="H3" s="47" t="n">
         <v>1</v>
       </c>
-      <c r="I3" s="48" t="n">
+      <c r="I3" s="47" t="n">
         <v>10</v>
       </c>
-      <c r="J3" s="41"/>
-      <c r="K3" s="47" t="n">
+      <c r="J3" s="46" t="n">
         <v>1</v>
       </c>
-      <c r="L3" s="48" t="s">
+      <c r="K3" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="M3" s="49" t="s">
+      <c r="L3" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="N3" s="48" t="n">
+      <c r="M3" s="47" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="47" t="n">
+      <c r="A4" s="46" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="D4" s="47" t="n">
+      <c r="D4" s="46" t="n">
         <v>58</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="48" t="n">
+      <c r="F4" s="47" t="n">
         <v>1</v>
       </c>
-      <c r="G4" s="41"/>
-      <c r="H4" s="48" t="n">
+      <c r="G4" s="48"/>
+      <c r="H4" s="47" t="n">
         <v>1</v>
       </c>
-      <c r="I4" s="48" t="n">
+      <c r="I4" s="47" t="n">
         <v>20</v>
       </c>
-      <c r="J4" s="41"/>
-      <c r="K4" s="47" t="n">
+      <c r="J4" s="46" t="n">
         <v>2</v>
       </c>
-      <c r="L4" s="48" t="s">
+      <c r="K4" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="M4" s="49" t="s">
+      <c r="L4" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="N4" s="48" t="n">
+      <c r="M4" s="47" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="47" t="n">
+      <c r="A5" s="46" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="D5" s="47" t="n">
+      <c r="D5" s="46" t="n">
         <v>37</v>
       </c>
-      <c r="E5" s="48" t="s">
+      <c r="E5" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="48" t="n">
+      <c r="F5" s="47" t="n">
         <v>2</v>
       </c>
-      <c r="G5" s="41"/>
-      <c r="H5" s="48" t="n">
+      <c r="G5" s="48"/>
+      <c r="H5" s="47" t="n">
         <v>1</v>
       </c>
-      <c r="I5" s="48" t="n">
+      <c r="I5" s="47" t="n">
         <v>30</v>
       </c>
-      <c r="J5" s="41"/>
-      <c r="K5" s="47" t="n">
+      <c r="J5" s="46" t="n">
         <v>3</v>
       </c>
-      <c r="L5" s="48" t="s">
+      <c r="K5" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="M5" s="49" t="s">
+      <c r="L5" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="N5" s="48" t="n">
+      <c r="M5" s="47" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="47" t="n">
+      <c r="A6" s="46" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="47" t="n">
+      <c r="D6" s="46" t="n">
         <v>46</v>
       </c>
-      <c r="E6" s="48" t="s">
+      <c r="E6" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="48" t="n">
+      <c r="F6" s="47" t="n">
         <v>2</v>
       </c>
-      <c r="G6" s="41"/>
-      <c r="H6" s="48" t="n">
+      <c r="G6" s="48"/>
+      <c r="H6" s="47" t="n">
         <v>2</v>
       </c>
-      <c r="I6" s="48" t="n">
+      <c r="I6" s="47" t="n">
         <v>10</v>
       </c>
-      <c r="J6" s="41"/>
-      <c r="K6" s="47" t="n">
+      <c r="J6" s="46" t="n">
         <v>4</v>
       </c>
-      <c r="L6" s="48" t="s">
+      <c r="K6" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="M6" s="49" t="s">
+      <c r="L6" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="N6" s="48" t="n">
+      <c r="M6" s="47" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="47" t="n">
+      <c r="A7" s="46" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="D7" s="47" t="n">
+      <c r="D7" s="46" t="n">
         <v>58</v>
       </c>
       <c r="E7" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="48" t="n">
+      <c r="F7" s="47" t="n">
         <v>2</v>
       </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="48" t="n">
+      <c r="G7" s="48"/>
+      <c r="H7" s="47" t="n">
         <v>2</v>
       </c>
-      <c r="I7" s="48" t="n">
+      <c r="I7" s="47" t="n">
         <v>30</v>
       </c>
-      <c r="J7" s="41"/>
-      <c r="K7" s="47" t="n">
+      <c r="J7" s="46" t="n">
         <v>5</v>
       </c>
-      <c r="L7" s="48" t="s">
+      <c r="K7" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="M7" s="49" t="s">
+      <c r="L7" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="N7" s="48" t="n">
+      <c r="M7" s="47" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="47" t="n">
+      <c r="A8" s="46" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="D8" s="47" t="n">
+      <c r="D8" s="46" t="n">
         <v>19</v>
       </c>
       <c r="E8" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="48" t="n">
+      <c r="F8" s="47" t="n">
         <v>3</v>
       </c>
-      <c r="G8" s="41"/>
-      <c r="H8" s="48" t="n">
+      <c r="G8" s="48"/>
+      <c r="H8" s="47" t="n">
         <v>3</v>
       </c>
-      <c r="I8" s="48" t="n">
+      <c r="I8" s="47" t="n">
         <v>20</v>
       </c>
-      <c r="J8" s="41"/>
-      <c r="K8" s="47" t="n">
+      <c r="J8" s="46" t="n">
         <v>6</v>
       </c>
-      <c r="L8" s="48" t="s">
+      <c r="K8" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="M8" s="48" t="s">
+      <c r="L8" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="N8" s="48" t="n">
+      <c r="M8" s="47" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="47" t="n">
+      <c r="A9" s="46" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="D9" s="47" t="n">
+      <c r="D9" s="46" t="n">
         <v>26</v>
       </c>
       <c r="E9" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="48" t="n">
+      <c r="F9" s="47" t="n">
         <v>3</v>
       </c>
-      <c r="G9" s="41"/>
-      <c r="H9" s="48" t="n">
+      <c r="G9" s="48"/>
+      <c r="H9" s="47" t="n">
         <v>4</v>
       </c>
-      <c r="I9" s="48" t="n">
+      <c r="I9" s="47" t="n">
         <v>40</v>
       </c>
-      <c r="J9" s="41"/>
-      <c r="K9" s="47" t="n">
+      <c r="J9" s="46" t="n">
         <v>7</v>
       </c>
-      <c r="L9" s="48" t="s">
+      <c r="K9" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="M9" s="48" t="s">
+      <c r="L9" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="N9" s="48" t="n">
+      <c r="M9" s="47" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="47" t="n">
+      <c r="A10" s="46" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="47" t="n">
+      <c r="D10" s="46" t="n">
         <v>85</v>
       </c>
       <c r="E10" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="48" t="n">
+      <c r="F10" s="47" t="n">
         <v>4</v>
       </c>
-      <c r="G10" s="41"/>
-      <c r="H10" s="48" t="n">
+      <c r="G10" s="48"/>
+      <c r="H10" s="47" t="n">
         <v>5</v>
       </c>
-      <c r="I10" s="48" t="n">
+      <c r="I10" s="47" t="n">
         <v>50</v>
       </c>
-      <c r="J10" s="41"/>
-      <c r="K10" s="47" t="n">
+      <c r="J10" s="46" t="n">
         <v>8</v>
       </c>
-      <c r="L10" s="48" t="s">
+      <c r="K10" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="M10" s="48" t="s">
+      <c r="L10" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="N10" s="48" t="n">
+      <c r="M10" s="47" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="47" t="n">
+      <c r="A11" s="46" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="D11" s="47" t="n">
+      <c r="D11" s="46" t="n">
         <v>45</v>
       </c>
       <c r="E11" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="48" t="n">
+      <c r="F11" s="47" t="n">
         <v>4</v>
       </c>
-      <c r="G11" s="41"/>
-      <c r="H11" s="48" t="n">
+      <c r="G11" s="48"/>
+      <c r="H11" s="47" t="n">
         <v>5</v>
       </c>
-      <c r="I11" s="48" t="n">
+      <c r="I11" s="47" t="n">
         <v>60</v>
       </c>
-      <c r="J11" s="41"/>
     </row>
     <row r="12" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="47" t="n">
+      <c r="A12" s="46" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="D12" s="47" t="n">
+      <c r="D12" s="46" t="n">
         <v>58</v>
       </c>
       <c r="E12" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="48" t="n">
+      <c r="F12" s="47" t="n">
         <v>4</v>
       </c>
-      <c r="G12" s="41"/>
-      <c r="H12" s="48" t="n">
+      <c r="G12" s="48"/>
+      <c r="H12" s="47" t="n">
         <v>6</v>
       </c>
-      <c r="I12" s="48" t="n">
+      <c r="I12" s="47" t="n">
         <v>10</v>
       </c>
-      <c r="J12" s="41"/>
     </row>
     <row r="13" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H13" s="48" t="n">
+      <c r="H13" s="47" t="n">
         <v>7</v>
       </c>
-      <c r="I13" s="48" t="n">
+      <c r="I13" s="47" t="n">
         <v>60</v>
       </c>
-      <c r="J13" s="41"/>
     </row>
     <row r="14" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H14" s="48" t="n">
+      <c r="H14" s="47" t="n">
         <v>8</v>
       </c>
-      <c r="I14" s="48"/>
-      <c r="J14" s="41"/>
+      <c r="I14" s="47"/>
     </row>
     <row r="15" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H15" s="48" t="n">
+      <c r="H15" s="47" t="n">
         <v>9</v>
       </c>
-      <c r="I15" s="48" t="n">
+      <c r="I15" s="47" t="n">
         <v>30</v>
       </c>
-      <c r="J15" s="41"/>
     </row>
     <row r="16" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H16" s="48" t="n">
+      <c r="H16" s="47" t="n">
         <v>10</v>
       </c>
-      <c r="I16" s="48" t="n">
+      <c r="I16" s="47" t="n">
         <v>20</v>
       </c>
-      <c r="J16" s="41"/>
     </row>
     <row r="17" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
     </row>
     <row r="18" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="50" t="s">
@@ -31892,11 +31866,11 @@
       <c r="F18" s="51"/>
       <c r="G18" s="51"/>
       <c r="H18" s="51"/>
-      <c r="K18" s="52" t="s">
+      <c r="J18" s="52" t="s">
         <v>125</v>
       </c>
+      <c r="K18" s="52"/>
       <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
     </row>
     <row r="19" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="50" t="s">
@@ -31920,210 +31894,210 @@
       <c r="H19" s="51" t="s">
         <v>61</v>
       </c>
+      <c r="J19" s="52" t="s">
+        <v>0</v>
+      </c>
       <c r="K19" s="52" t="s">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="L19" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="M19" s="52" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="48" t="n">
+      <c r="A20" s="47" t="n">
         <v>1</v>
       </c>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="47" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="53" t="n">
         <v>0</v>
       </c>
-      <c r="E20" s="48" t="n">
+      <c r="E20" s="47" t="n">
         <v>1</v>
       </c>
-      <c r="F20" s="48" t="s">
+      <c r="F20" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="G20" s="48" t="n">
+      <c r="G20" s="47" t="n">
         <v>279</v>
       </c>
-      <c r="H20" s="48" t="n">
+      <c r="H20" s="47" t="n">
         <v>1</v>
       </c>
-      <c r="K20" s="48" t="n">
+      <c r="J20" s="47" t="n">
         <v>1</v>
       </c>
-      <c r="L20" s="48" t="n">
+      <c r="K20" s="47" t="n">
         <v>8</v>
       </c>
-      <c r="M20" s="49" t="s">
+      <c r="L20" s="49" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="48" t="n">
+      <c r="A21" s="47" t="n">
         <v>2</v>
       </c>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="48" t="n">
+      <c r="C21" s="47" t="n">
         <v>7.99</v>
       </c>
-      <c r="E21" s="48" t="n">
+      <c r="E21" s="47" t="n">
         <v>2</v>
       </c>
-      <c r="F21" s="48" t="s">
+      <c r="F21" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="G21" s="48" t="n">
+      <c r="G21" s="47" t="n">
         <v>369</v>
       </c>
-      <c r="H21" s="48" t="n">
+      <c r="H21" s="47" t="n">
         <v>1</v>
       </c>
-      <c r="K21" s="48" t="n">
+      <c r="J21" s="47" t="n">
         <v>1</v>
       </c>
-      <c r="L21" s="48" t="n">
+      <c r="K21" s="47" t="n">
         <v>2</v>
       </c>
-      <c r="M21" s="48" t="s">
+      <c r="L21" s="47" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="48" t="n">
+      <c r="A22" s="47" t="n">
         <v>3</v>
       </c>
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="48" t="n">
+      <c r="C22" s="47" t="n">
         <v>5.99</v>
       </c>
-      <c r="E22" s="48" t="n">
+      <c r="E22" s="47" t="n">
         <v>3</v>
       </c>
-      <c r="F22" s="48" t="s">
+      <c r="F22" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="G22" s="48" t="n">
+      <c r="G22" s="47" t="n">
         <v>116</v>
       </c>
-      <c r="H22" s="48" t="n">
+      <c r="H22" s="47" t="n">
         <v>1</v>
       </c>
-      <c r="K22" s="48" t="n">
+      <c r="J22" s="47" t="n">
         <v>1</v>
       </c>
-      <c r="L22" s="48" t="n">
+      <c r="K22" s="47" t="n">
         <v>10</v>
       </c>
-      <c r="M22" s="48" t="s">
+      <c r="L22" s="47" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="48" t="n">
+    <row r="23" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="47" t="n">
         <v>4</v>
       </c>
-      <c r="B23" s="48" t="s">
+      <c r="B23" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="48" t="n">
+      <c r="C23" s="47" t="n">
         <v>6.99</v>
       </c>
-      <c r="E23" s="48" t="n">
+      <c r="E23" s="47" t="n">
         <v>4</v>
       </c>
       <c r="F23" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="G23" s="47" t="n">
+      <c r="G23" s="46" t="n">
         <v>203</v>
       </c>
-      <c r="H23" s="48" t="n">
+      <c r="H23" s="47" t="n">
         <v>2</v>
       </c>
-      <c r="K23" s="48" t="n">
+      <c r="J23" s="47" t="n">
         <v>2</v>
       </c>
-      <c r="L23" s="48" t="n">
+      <c r="K23" s="47" t="n">
         <v>10</v>
       </c>
-      <c r="M23" s="49" t="s">
+      <c r="L23" s="49" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E24" s="48" t="n">
+      <c r="E24" s="47" t="n">
         <v>5</v>
       </c>
       <c r="F24" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="G24" s="47" t="n">
+      <c r="G24" s="46" t="n">
         <v>152</v>
       </c>
-      <c r="H24" s="48" t="n">
+      <c r="H24" s="47" t="n">
         <v>3</v>
       </c>
-      <c r="K24" s="48" t="n">
+      <c r="J24" s="47" t="n">
         <v>2</v>
       </c>
-      <c r="L24" s="48" t="n">
+      <c r="K24" s="47" t="n">
         <v>7</v>
       </c>
-      <c r="M24" s="48" t="s">
+      <c r="L24" s="47" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E25" s="48" t="n">
+      <c r="E25" s="47" t="n">
         <v>6</v>
       </c>
       <c r="F25" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="G25" s="47" t="n">
+      <c r="G25" s="46" t="n">
         <v>105</v>
       </c>
-      <c r="H25" s="48" t="n">
+      <c r="H25" s="47" t="n">
         <v>4</v>
       </c>
-      <c r="K25" s="48" t="n">
+      <c r="J25" s="47" t="n">
         <v>3</v>
       </c>
-      <c r="L25" s="48" t="n">
+      <c r="K25" s="47" t="n">
         <v>10</v>
       </c>
-      <c r="M25" s="49" t="s">
+      <c r="L25" s="49" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E26" s="48" t="n">
+    <row r="26" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E26" s="47" t="n">
         <v>7</v>
       </c>
       <c r="F26" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="G26" s="47" t="n">
+      <c r="G26" s="46" t="n">
         <v>207</v>
       </c>
-      <c r="H26" s="48" t="n">
+      <c r="H26" s="47" t="n">
         <v>5</v>
       </c>
-      <c r="K26" s="48" t="n">
+      <c r="J26" s="47" t="n">
         <v>3</v>
       </c>
-      <c r="L26" s="48" t="n">
+      <c r="K26" s="47" t="n">
         <v>2</v>
       </c>
-      <c r="M26" s="48" t="s">
+      <c r="L26" s="47" t="s">
         <v>136</v>
       </c>
     </row>
@@ -32132,25 +32106,25 @@
         <v>137</v>
       </c>
       <c r="B27" s="54"/>
-      <c r="E27" s="48" t="n">
+      <c r="E27" s="47" t="n">
         <v>8</v>
       </c>
       <c r="F27" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="G27" s="47" t="n">
+      <c r="G27" s="46" t="n">
         <v>267</v>
       </c>
-      <c r="H27" s="48" t="n">
+      <c r="H27" s="47" t="n">
         <v>6</v>
       </c>
-      <c r="K27" s="48" t="n">
+      <c r="J27" s="47" t="n">
         <v>4</v>
       </c>
-      <c r="L27" s="48" t="n">
+      <c r="K27" s="47" t="n">
         <v>8</v>
       </c>
-      <c r="M27" s="49" t="s">
+      <c r="L27" s="49" t="s">
         <v>138</v>
       </c>
     </row>
@@ -32161,181 +32135,166 @@
       <c r="B28" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="E28" s="48" t="n">
+      <c r="E28" s="47" t="n">
         <v>9</v>
       </c>
       <c r="F28" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="G28" s="47" t="n">
+      <c r="G28" s="46" t="n">
         <v>244</v>
       </c>
-      <c r="H28" s="48" t="n">
+      <c r="H28" s="47" t="n">
         <v>7</v>
       </c>
-      <c r="K28" s="48" t="n">
+      <c r="J28" s="47" t="n">
         <v>5</v>
       </c>
-      <c r="L28" s="48" t="n">
+      <c r="K28" s="47" t="n">
         <v>8</v>
       </c>
-      <c r="M28" s="49" t="s">
+      <c r="L28" s="49" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="47" t="n">
+      <c r="A29" s="46" t="n">
         <v>10</v>
       </c>
-      <c r="B29" s="47" t="s">
+      <c r="B29" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="E29" s="48" t="n">
+      <c r="E29" s="47" t="n">
         <v>10</v>
       </c>
       <c r="F29" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="G29" s="47" t="n">
+      <c r="G29" s="46" t="n">
         <v>100</v>
       </c>
-      <c r="H29" s="48" t="n">
+      <c r="H29" s="47" t="n">
         <v>8</v>
       </c>
-      <c r="K29" s="48" t="n">
+      <c r="J29" s="47" t="n">
         <v>5</v>
       </c>
-      <c r="L29" s="48" t="n">
+      <c r="K29" s="47" t="n">
         <v>5</v>
       </c>
-      <c r="M29" s="48" t="s">
+      <c r="L29" s="47" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="47" t="n">
+      <c r="A30" s="46" t="n">
         <v>20</v>
       </c>
-      <c r="B30" s="47" t="s">
+      <c r="B30" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="K30" s="48" t="n">
+      <c r="J30" s="47" t="n">
         <v>6</v>
       </c>
-      <c r="L30" s="48" t="n">
+      <c r="K30" s="47" t="n">
         <v>7</v>
       </c>
-      <c r="M30" s="49" t="s">
+      <c r="L30" s="49" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="47" t="n">
+      <c r="A31" s="46" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="47" t="s">
+      <c r="B31" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="K31" s="48" t="n">
+      <c r="J31" s="47" t="n">
         <v>6</v>
       </c>
-      <c r="L31" s="48" t="n">
+      <c r="K31" s="47" t="n">
         <v>1</v>
       </c>
-      <c r="M31" s="48" t="s">
+      <c r="L31" s="47" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="47" t="n">
+      <c r="A32" s="46" t="n">
         <v>40</v>
       </c>
-      <c r="B32" s="47" t="s">
+      <c r="B32" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="K32" s="48" t="n">
+      <c r="J32" s="47" t="n">
         <v>7</v>
       </c>
-      <c r="L32" s="49" t="n">
+      <c r="K32" s="49" t="n">
         <v>4</v>
       </c>
-      <c r="M32" s="49" t="s">
+      <c r="L32" s="49" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="47" t="n">
+      <c r="A33" s="46" t="n">
         <v>50</v>
       </c>
-      <c r="B33" s="47" t="s">
+      <c r="B33" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="K33" s="48" t="n">
+      <c r="J33" s="47" t="n">
         <v>8</v>
       </c>
-      <c r="L33" s="49" t="n">
+      <c r="K33" s="49" t="n">
         <v>4</v>
       </c>
-      <c r="M33" s="49" t="s">
+      <c r="L33" s="49" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="47" t="n">
+      <c r="A34" s="46" t="n">
         <v>60</v>
       </c>
-      <c r="B34" s="47" t="s">
+      <c r="B34" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="K34" s="48" t="n">
+      <c r="J34" s="47" t="n">
         <v>9</v>
       </c>
-      <c r="L34" s="49" t="n">
+      <c r="K34" s="49" t="n">
         <v>9</v>
       </c>
-      <c r="M34" s="49" t="s">
+      <c r="L34" s="49" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K35" s="48" t="n">
+      <c r="J35" s="47" t="n">
         <v>10</v>
       </c>
-      <c r="L35" s="49" t="n">
+      <c r="K35" s="49" t="n">
         <v>3</v>
       </c>
-      <c r="M35" s="49" t="s">
+      <c r="L35" s="49" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J41" s="37" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J42" s="37" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J43" s="37" t="s">
-        <v>145</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="H1:I1"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="J1:M1"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="E18:H18"/>
-    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="J18:L18"/>
     <mergeCell ref="A27:B27"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="43" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPágina &amp;P</oddFooter>
